--- a/dataanalysis/data/predictions/1400/08051450_1451.xlsx
+++ b/dataanalysis/data/predictions/1400/08051450_1451.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-05</t>
   </si>
   <si>
@@ -446,12 +449,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -809,13 +806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,19 +915,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.18</v>
@@ -948,7 +948,7 @@
         <v>87298.09</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>16</v>
@@ -989,8 +989,23 @@
       <c r="W2">
         <v>-0.78</v>
       </c>
+      <c r="X2">
+        <v>-5.2</v>
+      </c>
+      <c r="Y2">
+        <v>5.59</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
       <c r="AC2" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -998,22 +1013,25 @@
       <c r="AG2">
         <v>4.003967761993408</v>
       </c>
-      <c r="AH2" t="s">
-        <v>144</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.12</v>
@@ -1031,7 +1049,7 @@
         <v>139622.86</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1072,8 +1090,23 @@
       <c r="W3">
         <v>-0.71</v>
       </c>
+      <c r="X3">
+        <v>-3.82</v>
+      </c>
+      <c r="Y3">
+        <v>11.71</v>
+      </c>
+      <c r="Z3">
+        <v>1.56</v>
+      </c>
       <c r="AC3" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1081,22 +1114,25 @@
       <c r="AG3">
         <v>2.343092918395996</v>
       </c>
-      <c r="AH3" t="s">
-        <v>144</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300030</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-1.34</v>
@@ -1114,7 +1150,7 @@
         <v>32493.05</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1155,8 +1191,23 @@
       <c r="W4">
         <v>-1.01</v>
       </c>
+      <c r="X4">
+        <v>-3.49</v>
+      </c>
+      <c r="Y4">
+        <v>9.06</v>
+      </c>
+      <c r="Z4">
+        <v>2.37</v>
+      </c>
       <c r="AC4" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1164,22 +1215,25 @@
       <c r="AG4">
         <v>2.401205778121948</v>
       </c>
-      <c r="AH4" t="s">
-        <v>144</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300158</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.83</v>
@@ -1197,7 +1251,7 @@
         <v>147275.34</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1238,8 +1292,23 @@
       <c r="W5">
         <v>-1.18</v>
       </c>
+      <c r="X5">
+        <v>-6.44</v>
+      </c>
+      <c r="Y5">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>2.11</v>
+      </c>
       <c r="AC5" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1247,22 +1316,25 @@
       <c r="AG5">
         <v>2.583610773086548</v>
       </c>
-      <c r="AH5" t="s">
-        <v>144</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>5.63</v>
@@ -1280,7 +1352,7 @@
         <v>669831.63</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1321,8 +1393,23 @@
       <c r="W6">
         <v>-4.94</v>
       </c>
+      <c r="X6">
+        <v>-8.91</v>
+      </c>
+      <c r="Y6">
+        <v>25.97</v>
+      </c>
+      <c r="Z6">
+        <v>1.09</v>
+      </c>
       <c r="AC6" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1330,22 +1417,25 @@
       <c r="AG6">
         <v>12.83964729309082</v>
       </c>
-      <c r="AH6" t="s">
-        <v>144</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300289</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-11.64</v>
@@ -1363,7 +1453,7 @@
         <v>153760.69</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1404,8 +1494,23 @@
       <c r="W7">
         <v>-1.17</v>
       </c>
+      <c r="X7">
+        <v>-11.43</v>
+      </c>
+      <c r="Y7">
+        <v>9.35</v>
+      </c>
+      <c r="Z7">
+        <v>4.35</v>
+      </c>
       <c r="AC7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1413,22 +1518,25 @@
       <c r="AG7">
         <v>3.249042749404907</v>
       </c>
-      <c r="AH7" t="s">
-        <v>144</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300322</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>5.57</v>
@@ -1446,7 +1554,7 @@
         <v>230635.57</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -1487,8 +1595,23 @@
       <c r="W8">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X8">
+        <v>5.38</v>
+      </c>
+      <c r="Y8">
+        <v>23.51</v>
+      </c>
+      <c r="Z8">
+        <v>14.85</v>
+      </c>
       <c r="AC8" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1496,22 +1619,25 @@
       <c r="AG8">
         <v>7.707821846008301</v>
       </c>
-      <c r="AH8" t="s">
-        <v>144</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300329</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>5.72</v>
@@ -1529,7 +1655,7 @@
         <v>34499.68</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1570,8 +1696,23 @@
       <c r="W9">
         <v>0.52</v>
       </c>
+      <c r="X9">
+        <v>3.24</v>
+      </c>
+      <c r="Y9">
+        <v>14.46</v>
+      </c>
+      <c r="Z9">
+        <v>20.3</v>
+      </c>
       <c r="AC9" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1579,22 +1720,25 @@
       <c r="AG9">
         <v>5.472339153289795</v>
       </c>
-      <c r="AH9" t="s">
-        <v>145</v>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300378</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-5.03</v>
@@ -1612,7 +1756,7 @@
         <v>305463.35</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1653,8 +1797,23 @@
       <c r="W10">
         <v>-0.89</v>
       </c>
+      <c r="X10">
+        <v>4.35</v>
+      </c>
+      <c r="Y10">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>4.52</v>
+      </c>
       <c r="AC10" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1662,22 +1821,25 @@
       <c r="AG10">
         <v>4.925094127655029</v>
       </c>
-      <c r="AH10" t="s">
-        <v>144</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300436</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.25</v>
@@ -1695,7 +1857,7 @@
         <v>185182.81</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>24</v>
@@ -1736,8 +1898,23 @@
       <c r="W11">
         <v>-0.78</v>
       </c>
+      <c r="X11">
+        <v>-6.56</v>
+      </c>
+      <c r="Y11">
+        <v>124.66</v>
+      </c>
+      <c r="Z11">
+        <v>2.85</v>
+      </c>
       <c r="AC11" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1745,22 +1922,25 @@
       <c r="AG11">
         <v>1.505306720733643</v>
       </c>
-      <c r="AH11" t="s">
-        <v>144</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300486</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>19.07</v>
@@ -1778,7 +1958,7 @@
         <v>254933.61</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1819,8 +1999,23 @@
       <c r="W12">
         <v>-3.93</v>
       </c>
+      <c r="X12">
+        <v>-16.43</v>
+      </c>
+      <c r="Y12">
+        <v>19.45</v>
+      </c>
+      <c r="Z12">
+        <v>-3.86</v>
+      </c>
       <c r="AC12" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -1828,22 +2023,25 @@
       <c r="AG12">
         <v>8.075896263122559</v>
       </c>
-      <c r="AH12" t="s">
-        <v>144</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300500</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.83</v>
@@ -1861,7 +2059,7 @@
         <v>41724.84</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1902,8 +2100,23 @@
       <c r="W13">
         <v>0.71</v>
       </c>
+      <c r="X13">
+        <v>-2.12</v>
+      </c>
+      <c r="Y13">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>-0.06</v>
+      </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1911,22 +2124,25 @@
       <c r="AG13">
         <v>2.781050443649292</v>
       </c>
-      <c r="AH13" t="s">
-        <v>144</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300534</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.14</v>
@@ -1944,7 +2160,7 @@
         <v>54074.91</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1985,8 +2201,23 @@
       <c r="W14">
         <v>-0.83</v>
       </c>
+      <c r="X14">
+        <v>-3.41</v>
+      </c>
+      <c r="Y14">
+        <v>11.98</v>
+      </c>
+      <c r="Z14">
+        <v>2.31</v>
+      </c>
       <c r="AC14" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1994,22 +2225,25 @@
       <c r="AG14">
         <v>1.860883831977844</v>
       </c>
-      <c r="AH14" t="s">
-        <v>144</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300548</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>13.6</v>
@@ -2027,7 +2261,7 @@
         <v>379090.28</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -2068,8 +2302,23 @@
       <c r="W15">
         <v>1.2</v>
       </c>
+      <c r="X15">
+        <v>-1.66</v>
+      </c>
+      <c r="Y15">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>-0.15</v>
+      </c>
       <c r="AC15" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2077,22 +2326,25 @@
       <c r="AG15">
         <v>0.9242992997169495</v>
       </c>
-      <c r="AH15" t="s">
-        <v>144</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300600</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.8</v>
@@ -2110,7 +2362,7 @@
         <v>66940.39999999999</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2151,8 +2403,23 @@
       <c r="W16">
         <v>-0.87</v>
       </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>20.7</v>
+      </c>
+      <c r="Z16">
+        <v>19.24</v>
+      </c>
       <c r="AC16" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2160,22 +2427,25 @@
       <c r="AG16">
         <v>1.400155663490295</v>
       </c>
-      <c r="AH16" t="s">
-        <v>144</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300609</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.91</v>
@@ -2193,7 +2463,7 @@
         <v>62854.48</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2234,8 +2504,23 @@
       <c r="W17">
         <v>-0.92</v>
       </c>
+      <c r="X17">
+        <v>-3.66</v>
+      </c>
+      <c r="Y17">
+        <v>47.5</v>
+      </c>
+      <c r="Z17">
+        <v>-0.04</v>
+      </c>
       <c r="AC17" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2243,22 +2528,25 @@
       <c r="AG17">
         <v>6.690045833587646</v>
       </c>
-      <c r="AH17" t="s">
-        <v>144</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300644</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>9.779999999999999</v>
@@ -2276,7 +2564,7 @@
         <v>82286.98</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2317,8 +2605,23 @@
       <c r="W18">
         <v>0.49</v>
       </c>
+      <c r="X18">
+        <v>15.94</v>
+      </c>
+      <c r="Y18">
+        <v>42.67</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
       <c r="AC18" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2326,22 +2629,25 @@
       <c r="AG18">
         <v>2.342804431915283</v>
       </c>
-      <c r="AH18" t="s">
-        <v>145</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300648</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.7</v>
@@ -2359,7 +2665,7 @@
         <v>49324.64</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2400,8 +2706,23 @@
       <c r="W19">
         <v>0.41</v>
       </c>
+      <c r="X19">
+        <v>7.8</v>
+      </c>
+      <c r="Y19">
+        <v>55.06</v>
+      </c>
+      <c r="Z19">
+        <v>8.49</v>
+      </c>
       <c r="AC19" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2409,22 +2730,25 @@
       <c r="AG19">
         <v>4.48120641708374</v>
       </c>
-      <c r="AH19" t="s">
-        <v>144</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300683</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-7.6</v>
@@ -2442,7 +2766,7 @@
         <v>64227.55</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20">
         <v>12</v>
@@ -2483,8 +2807,23 @@
       <c r="W20">
         <v>-1.07</v>
       </c>
+      <c r="X20">
+        <v>0.78</v>
+      </c>
+      <c r="Y20">
+        <v>57.42</v>
+      </c>
+      <c r="Z20">
+        <v>6.87</v>
+      </c>
       <c r="AC20" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2492,22 +2831,25 @@
       <c r="AG20">
         <v>3.354312658309937</v>
       </c>
-      <c r="AH20" t="s">
-        <v>144</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300696</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>8.529999999999999</v>
@@ -2525,7 +2867,7 @@
         <v>227594.85</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2566,8 +2908,23 @@
       <c r="W21">
         <v>-7.38</v>
       </c>
+      <c r="X21">
+        <v>2.02</v>
+      </c>
+      <c r="Y21">
+        <v>34.65</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
       <c r="AC21" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2575,22 +2932,25 @@
       <c r="AG21">
         <v>8.725438117980957</v>
       </c>
-      <c r="AH21" t="s">
-        <v>144</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300706</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>10.06</v>
@@ -2608,7 +2968,7 @@
         <v>146011.67</v>
       </c>
       <c r="J22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2649,8 +3009,23 @@
       <c r="W22">
         <v>0.88</v>
       </c>
+      <c r="X22">
+        <v>3.28</v>
+      </c>
+      <c r="Y22">
+        <v>41.33</v>
+      </c>
+      <c r="Z22">
+        <v>7.6</v>
+      </c>
       <c r="AC22" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2658,22 +3033,25 @@
       <c r="AG22">
         <v>8.134280204772949</v>
       </c>
-      <c r="AH22" t="s">
-        <v>144</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300731</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>7.07</v>
@@ -2691,7 +3069,7 @@
         <v>95100.87</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2732,8 +3110,23 @@
       <c r="W23">
         <v>2.21</v>
       </c>
+      <c r="X23">
+        <v>19.99</v>
+      </c>
+      <c r="Y23">
+        <v>47.12</v>
+      </c>
+      <c r="Z23">
+        <v>19.26</v>
+      </c>
       <c r="AC23" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2741,22 +3134,25 @@
       <c r="AG23">
         <v>4.498040199279785</v>
       </c>
-      <c r="AH23" t="s">
-        <v>144</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300732</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>10.77</v>
@@ -2774,7 +3170,7 @@
         <v>82451.42</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2815,8 +3211,23 @@
       <c r="W24">
         <v>0.73</v>
       </c>
+      <c r="X24">
+        <v>-8.460000000000001</v>
+      </c>
+      <c r="Y24">
+        <v>11.23</v>
+      </c>
+      <c r="Z24">
+        <v>-2.52</v>
+      </c>
       <c r="AC24" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2824,22 +3235,25 @@
       <c r="AG24">
         <v>3.744025945663452</v>
       </c>
-      <c r="AH24" t="s">
-        <v>144</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300733</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.06</v>
@@ -2857,7 +3271,7 @@
         <v>91036.5</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2898,8 +3312,23 @@
       <c r="W25">
         <v>0.51</v>
       </c>
+      <c r="X25">
+        <v>-1.71</v>
+      </c>
+      <c r="Y25">
+        <v>24.32</v>
+      </c>
+      <c r="Z25">
+        <v>2.27</v>
+      </c>
       <c r="AC25" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2907,22 +3336,25 @@
       <c r="AG25">
         <v>4.047575950622559</v>
       </c>
-      <c r="AH25" t="s">
-        <v>144</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300830</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-5.89</v>
@@ -2940,7 +3372,7 @@
         <v>121801.42</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2981,8 +3413,23 @@
       <c r="W26">
         <v>-3.77</v>
       </c>
+      <c r="X26">
+        <v>7.37</v>
+      </c>
+      <c r="Y26">
+        <v>13.76</v>
+      </c>
+      <c r="Z26">
+        <v>7.67</v>
+      </c>
       <c r="AC26" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2990,22 +3437,25 @@
       <c r="AG26">
         <v>5.269827365875244</v>
       </c>
-      <c r="AH26" t="s">
-        <v>144</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300841</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.66</v>
@@ -3023,7 +3473,7 @@
         <v>31237.85</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3064,8 +3514,23 @@
       <c r="W27">
         <v>0.21</v>
       </c>
+      <c r="X27">
+        <v>-1.54</v>
+      </c>
+      <c r="Y27">
+        <v>79.7</v>
+      </c>
+      <c r="Z27">
+        <v>2.43</v>
+      </c>
       <c r="AC27" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3073,22 +3538,25 @@
       <c r="AG27">
         <v>2.807559251785278</v>
       </c>
-      <c r="AH27" t="s">
-        <v>144</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300858</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-10.37</v>
@@ -3106,7 +3574,7 @@
         <v>87774.22</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3147,8 +3615,23 @@
       <c r="W28">
         <v>-3.69</v>
       </c>
+      <c r="X28">
+        <v>-3.98</v>
+      </c>
+      <c r="Y28">
+        <v>20.6</v>
+      </c>
+      <c r="Z28">
+        <v>1.43</v>
+      </c>
       <c r="AC28" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3156,22 +3639,25 @@
       <c r="AG28">
         <v>5.210506439208984</v>
       </c>
-      <c r="AH28" t="s">
-        <v>144</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300878</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-8.07</v>
@@ -3189,7 +3675,7 @@
         <v>38103.56</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3230,8 +3716,23 @@
       <c r="W29">
         <v>-0.16</v>
       </c>
+      <c r="X29">
+        <v>-4.81</v>
+      </c>
+      <c r="Y29">
+        <v>25.66</v>
+      </c>
+      <c r="Z29">
+        <v>2.39</v>
+      </c>
       <c r="AC29" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3239,22 +3740,25 @@
       <c r="AG29">
         <v>5.479810237884521</v>
       </c>
-      <c r="AH29" t="s">
-        <v>144</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300885</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.84</v>
@@ -3272,7 +3776,7 @@
         <v>89006.73</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30">
         <v>10</v>
@@ -3313,8 +3817,23 @@
       <c r="W30">
         <v>-0.45</v>
       </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30">
+        <v>28.86</v>
+      </c>
+      <c r="Z30">
+        <v>19.6</v>
+      </c>
       <c r="AC30" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3322,22 +3841,25 @@
       <c r="AG30">
         <v>5.251698970794678</v>
       </c>
-      <c r="AH30" t="s">
-        <v>144</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300916</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>19.99</v>
@@ -3355,7 +3877,7 @@
         <v>89530.64</v>
       </c>
       <c r="J31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3396,8 +3918,23 @@
       <c r="W31">
         <v>0.91</v>
       </c>
+      <c r="X31">
+        <v>1.08</v>
+      </c>
+      <c r="Y31">
+        <v>44.43</v>
+      </c>
+      <c r="Z31">
+        <v>3.98</v>
+      </c>
       <c r="AC31" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
@@ -3405,22 +3942,25 @@
       <c r="AG31">
         <v>7.361466407775879</v>
       </c>
-      <c r="AH31" t="s">
-        <v>145</v>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300965</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.4</v>
@@ -3438,7 +3978,7 @@
         <v>72601.38</v>
       </c>
       <c r="J32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3479,8 +4019,23 @@
       <c r="W32">
         <v>-0.99</v>
       </c>
+      <c r="X32">
+        <v>14.94</v>
+      </c>
+      <c r="Y32">
+        <v>93.3</v>
+      </c>
+      <c r="Z32">
+        <v>16.33</v>
+      </c>
       <c r="AC32" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3488,22 +4043,25 @@
       <c r="AG32">
         <v>6.867178440093994</v>
       </c>
-      <c r="AH32" t="s">
-        <v>144</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300966</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-5.26</v>
@@ -3521,7 +4079,7 @@
         <v>47707.66</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -3562,8 +4120,23 @@
       <c r="W33">
         <v>-1.23</v>
       </c>
+      <c r="X33">
+        <v>-7.3</v>
+      </c>
+      <c r="Y33">
+        <v>26.2</v>
+      </c>
+      <c r="Z33">
+        <v>-2.38</v>
+      </c>
       <c r="AC33" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3571,22 +4144,25 @@
       <c r="AG33">
         <v>2.415175437927246</v>
       </c>
-      <c r="AH33" t="s">
-        <v>144</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301007</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-0.03</v>
@@ -3604,7 +4180,7 @@
         <v>30799.75</v>
       </c>
       <c r="J34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3645,8 +4221,23 @@
       <c r="W34">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X34">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>40.88</v>
+      </c>
+      <c r="Z34">
+        <v>3.99</v>
+      </c>
       <c r="AC34" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3654,22 +4245,25 @@
       <c r="AG34">
         <v>5.07827091217041</v>
       </c>
-      <c r="AH34" t="s">
-        <v>144</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301038</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.78</v>
@@ -3687,7 +4281,7 @@
         <v>74871.97</v>
       </c>
       <c r="J35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3728,8 +4322,23 @@
       <c r="W35">
         <v>-0.14</v>
       </c>
+      <c r="X35">
+        <v>-9.76</v>
+      </c>
+      <c r="Y35">
+        <v>31.09</v>
+      </c>
+      <c r="Z35">
+        <v>-2.23</v>
+      </c>
       <c r="AC35" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3737,22 +4346,25 @@
       <c r="AG35">
         <v>2.962866544723511</v>
       </c>
-      <c r="AH35" t="s">
-        <v>144</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301052</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>3.03</v>
@@ -3770,7 +4382,7 @@
         <v>51016.39</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3811,8 +4423,23 @@
       <c r="W36">
         <v>-0.27</v>
       </c>
+      <c r="X36">
+        <v>-3.31</v>
+      </c>
+      <c r="Y36">
+        <v>66.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.3</v>
+      </c>
       <c r="AC36" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3820,22 +4447,25 @@
       <c r="AG36">
         <v>1.487205028533936</v>
       </c>
-      <c r="AH36" t="s">
-        <v>144</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301095</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>8.59</v>
@@ -3853,7 +4483,7 @@
         <v>80930.97</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3894,8 +4524,23 @@
       <c r="W37">
         <v>0.27</v>
       </c>
+      <c r="X37">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>76.66</v>
+      </c>
+      <c r="Z37">
+        <v>12.14</v>
+      </c>
       <c r="AC37" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3903,22 +4548,25 @@
       <c r="AG37">
         <v>1.79139232635498</v>
       </c>
-      <c r="AH37" t="s">
-        <v>144</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301120</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.85</v>
@@ -3936,7 +4584,7 @@
         <v>40964.53</v>
       </c>
       <c r="J38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3977,8 +4625,23 @@
       <c r="W38">
         <v>-1.3</v>
       </c>
+      <c r="X38">
+        <v>6.7</v>
+      </c>
+      <c r="Y38">
+        <v>13.98</v>
+      </c>
+      <c r="Z38">
+        <v>7.54</v>
+      </c>
       <c r="AC38" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3986,22 +4649,25 @@
       <c r="AG38">
         <v>3.408829689025879</v>
       </c>
-      <c r="AH38" t="s">
-        <v>144</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301123</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>10.96</v>
@@ -4019,7 +4685,7 @@
         <v>69796.47</v>
       </c>
       <c r="J39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4060,8 +4726,23 @@
       <c r="W39">
         <v>0.82</v>
       </c>
+      <c r="X39">
+        <v>4.93</v>
+      </c>
+      <c r="Y39">
+        <v>33.6</v>
+      </c>
+      <c r="Z39">
+        <v>9.16</v>
+      </c>
       <c r="AC39" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4069,22 +4750,25 @@
       <c r="AG39">
         <v>-0.1564106047153473</v>
       </c>
-      <c r="AH39" t="s">
-        <v>144</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>301150</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-2.89</v>
@@ -4102,7 +4786,7 @@
         <v>33574.67</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4143,8 +4827,23 @@
       <c r="W40">
         <v>-0.72</v>
       </c>
+      <c r="X40">
+        <v>3.15</v>
+      </c>
+      <c r="Y40">
+        <v>30.69</v>
+      </c>
+      <c r="Z40">
+        <v>8.710000000000001</v>
+      </c>
       <c r="AC40" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4152,22 +4851,25 @@
       <c r="AG40">
         <v>5.792114734649658</v>
       </c>
-      <c r="AH40" t="s">
-        <v>144</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>301161</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.62</v>
@@ -4185,7 +4887,7 @@
         <v>61999.61</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4226,8 +4928,23 @@
       <c r="W41">
         <v>-0.76</v>
       </c>
+      <c r="X41">
+        <v>5.62</v>
+      </c>
+      <c r="Y41">
+        <v>36.17</v>
+      </c>
+      <c r="Z41">
+        <v>10.85</v>
+      </c>
       <c r="AC41" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4235,22 +4952,25 @@
       <c r="AG41">
         <v>0.01715043932199478</v>
       </c>
-      <c r="AH41" t="s">
-        <v>144</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>301200</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>14.44</v>
@@ -4268,7 +4988,7 @@
         <v>114728.86</v>
       </c>
       <c r="J42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4309,8 +5029,23 @@
       <c r="W42">
         <v>2.53</v>
       </c>
+      <c r="X42">
+        <v>5.39</v>
+      </c>
+      <c r="Y42">
+        <v>89.13</v>
+      </c>
+      <c r="Z42">
+        <v>6.51</v>
+      </c>
       <c r="AC42" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4318,22 +5053,25 @@
       <c r="AG42">
         <v>4.009628295898438</v>
       </c>
-      <c r="AH42" t="s">
-        <v>144</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>301213</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>3.38</v>
@@ -4351,7 +5089,7 @@
         <v>68937.97</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4392,8 +5130,23 @@
       <c r="W43">
         <v>0.76</v>
       </c>
+      <c r="X43">
+        <v>3.16</v>
+      </c>
+      <c r="Y43">
+        <v>79.5</v>
+      </c>
+      <c r="Z43">
+        <v>7.72</v>
+      </c>
       <c r="AC43" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4401,22 +5154,25 @@
       <c r="AG43">
         <v>5.616855621337891</v>
       </c>
-      <c r="AH43" t="s">
-        <v>144</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>301235</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>1.71</v>
@@ -4434,7 +5190,7 @@
         <v>29653.07</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4475,8 +5231,23 @@
       <c r="W44">
         <v>-0.67</v>
       </c>
+      <c r="X44">
+        <v>-3.18</v>
+      </c>
+      <c r="Y44">
+        <v>31.65</v>
+      </c>
+      <c r="Z44">
+        <v>0.64</v>
+      </c>
       <c r="AC44" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4484,22 +5255,25 @@
       <c r="AG44">
         <v>-0.6476104259490967</v>
       </c>
-      <c r="AH44" t="s">
-        <v>144</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>301285</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>4.14</v>
@@ -4517,7 +5291,7 @@
         <v>45035.95</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K45">
         <v>7</v>
@@ -4558,8 +5332,23 @@
       <c r="W45">
         <v>0.71</v>
       </c>
+      <c r="X45">
+        <v>4.17</v>
+      </c>
+      <c r="Y45">
+        <v>45.8</v>
+      </c>
+      <c r="Z45">
+        <v>5.26</v>
+      </c>
       <c r="AC45" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4567,22 +5356,25 @@
       <c r="AG45">
         <v>3.412609338760376</v>
       </c>
-      <c r="AH45" t="s">
-        <v>144</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>301357</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>17.75</v>
@@ -4600,7 +5392,7 @@
         <v>189511.92</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K46">
         <v>6</v>
@@ -4641,8 +5433,23 @@
       <c r="W46">
         <v>-2.4</v>
       </c>
+      <c r="X46">
+        <v>20</v>
+      </c>
+      <c r="Y46">
+        <v>157.9</v>
+      </c>
+      <c r="Z46">
+        <v>16.83</v>
+      </c>
       <c r="AC46" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4650,22 +5457,25 @@
       <c r="AG46">
         <v>4.101178169250488</v>
       </c>
-      <c r="AH46" t="s">
-        <v>144</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>301389</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-0.44</v>
@@ -4683,7 +5493,7 @@
         <v>173856.69</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K47">
         <v>21</v>
@@ -4724,8 +5534,23 @@
       <c r="W47">
         <v>-0.11</v>
       </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>56.33</v>
+      </c>
+      <c r="Z47">
+        <v>9.4</v>
+      </c>
       <c r="AC47" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4733,22 +5558,25 @@
       <c r="AG47">
         <v>6.109161376953125</v>
       </c>
-      <c r="AH47" t="s">
-        <v>144</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301392</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>3.79</v>
@@ -4766,7 +5594,7 @@
         <v>59594.18</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4807,8 +5635,23 @@
       <c r="W48">
         <v>0.34</v>
       </c>
+      <c r="X48">
+        <v>2.25</v>
+      </c>
+      <c r="Y48">
+        <v>168.59</v>
+      </c>
+      <c r="Z48">
+        <v>4.94</v>
+      </c>
       <c r="AC48" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4816,22 +5659,25 @@
       <c r="AG48">
         <v>-1.412258267402649</v>
       </c>
-      <c r="AH48" t="s">
-        <v>144</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301489</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.32</v>
@@ -4849,7 +5695,7 @@
         <v>118190.63</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -4890,8 +5736,23 @@
       <c r="W49">
         <v>1.42</v>
       </c>
+      <c r="X49">
+        <v>9.99</v>
+      </c>
+      <c r="Y49">
+        <v>142.89</v>
+      </c>
+      <c r="Z49">
+        <v>13.24</v>
+      </c>
       <c r="AC49" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4899,22 +5760,25 @@
       <c r="AG49">
         <v>0.1631385087966919</v>
       </c>
-      <c r="AH49" t="s">
-        <v>144</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301529</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.67</v>
@@ -4932,7 +5796,7 @@
         <v>40993.76</v>
       </c>
       <c r="J50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K50">
         <v>12</v>
@@ -4973,8 +5837,23 @@
       <c r="W50">
         <v>-0.98</v>
       </c>
+      <c r="X50">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>75.72</v>
+      </c>
+      <c r="Z50">
+        <v>10.65</v>
+      </c>
       <c r="AC50" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4982,22 +5861,25 @@
       <c r="AG50">
         <v>6.976853370666504</v>
       </c>
-      <c r="AH50" t="s">
-        <v>144</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688011</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-4.65</v>
@@ -5015,7 +5897,7 @@
         <v>35541.02</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5056,8 +5938,23 @@
       <c r="W51">
         <v>-0.68</v>
       </c>
+      <c r="X51">
+        <v>3.18</v>
+      </c>
+      <c r="Y51">
+        <v>48.8</v>
+      </c>
+      <c r="Z51">
+        <v>4.32</v>
+      </c>
       <c r="AC51" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5065,22 +5962,25 @@
       <c r="AG51">
         <v>5.151321411132812</v>
       </c>
-      <c r="AH51" t="s">
-        <v>144</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688020</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-3.32</v>
@@ -5098,7 +5998,7 @@
         <v>25085.53</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5139,8 +6039,23 @@
       <c r="W52">
         <v>-0.32</v>
       </c>
+      <c r="X52">
+        <v>2.95</v>
+      </c>
+      <c r="Y52">
+        <v>56.5</v>
+      </c>
+      <c r="Z52">
+        <v>4.22</v>
+      </c>
       <c r="AC52" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5148,22 +6063,25 @@
       <c r="AG52">
         <v>7.018516540527344</v>
       </c>
-      <c r="AH52" t="s">
-        <v>144</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688039</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.6</v>
@@ -5181,7 +6099,7 @@
         <v>43686.82</v>
       </c>
       <c r="J53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5222,8 +6140,23 @@
       <c r="W53">
         <v>0.29</v>
       </c>
+      <c r="X53">
+        <v>20</v>
+      </c>
+      <c r="Y53">
+        <v>58.56</v>
+      </c>
+      <c r="Z53">
+        <v>21.02</v>
+      </c>
       <c r="AC53" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5231,22 +6164,25 @@
       <c r="AG53">
         <v>5.998193264007568</v>
       </c>
-      <c r="AH53" t="s">
-        <v>144</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688048</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.24</v>
@@ -5264,7 +6200,7 @@
         <v>64837.9</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5305,8 +6241,23 @@
       <c r="W54">
         <v>0.85</v>
       </c>
+      <c r="X54">
+        <v>3.3</v>
+      </c>
+      <c r="Y54">
+        <v>79.3</v>
+      </c>
+      <c r="Z54">
+        <v>4.69</v>
+      </c>
       <c r="AC54" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5314,22 +6265,25 @@
       <c r="AG54">
         <v>5.589337348937988</v>
       </c>
-      <c r="AH54" t="s">
-        <v>145</v>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688110</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-11.59</v>
@@ -5347,7 +6301,7 @@
         <v>437029.48</v>
       </c>
       <c r="J55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5388,8 +6342,23 @@
       <c r="W55">
         <v>-1.6</v>
       </c>
+      <c r="X55">
+        <v>0.21</v>
+      </c>
+      <c r="Y55">
+        <v>63.69</v>
+      </c>
+      <c r="Z55">
+        <v>4.58</v>
+      </c>
       <c r="AC55" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5397,22 +6366,25 @@
       <c r="AG55">
         <v>2.823330640792847</v>
       </c>
-      <c r="AH55" t="s">
-        <v>144</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688118</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-6.97</v>
@@ -5430,7 +6402,7 @@
         <v>33896.06</v>
       </c>
       <c r="J56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5471,8 +6443,23 @@
       <c r="W56">
         <v>-1.36</v>
       </c>
+      <c r="X56">
+        <v>5.49</v>
+      </c>
+      <c r="Y56">
+        <v>32.5</v>
+      </c>
+      <c r="Z56">
+        <v>5.86</v>
+      </c>
       <c r="AC56" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5480,22 +6467,25 @@
       <c r="AG56">
         <v>1.136050224304199</v>
       </c>
-      <c r="AH56" t="s">
-        <v>144</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688189</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-7.25</v>
@@ -5513,7 +6503,7 @@
         <v>50832.5</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5554,8 +6544,23 @@
       <c r="W57">
         <v>-1.9</v>
       </c>
+      <c r="X57">
+        <v>-2.58</v>
+      </c>
+      <c r="Y57">
+        <v>16.67</v>
+      </c>
+      <c r="Z57">
+        <v>4.19</v>
+      </c>
       <c r="AC57" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5563,22 +6568,25 @@
       <c r="AG57">
         <v>4.070321083068848</v>
       </c>
-      <c r="AH57" t="s">
-        <v>144</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688210</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>0.03</v>
@@ -5596,7 +6604,7 @@
         <v>49372.45</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5637,8 +6645,23 @@
       <c r="W58">
         <v>0.06</v>
       </c>
+      <c r="X58">
+        <v>11.11</v>
+      </c>
+      <c r="Y58">
+        <v>44.44</v>
+      </c>
+      <c r="Z58">
+        <v>14.33</v>
+      </c>
       <c r="AC58" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5646,22 +6669,25 @@
       <c r="AG58">
         <v>3.106793165206909</v>
       </c>
-      <c r="AH58" t="s">
-        <v>144</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688258</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-5</v>
@@ -5679,7 +6705,7 @@
         <v>78694.27</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -5720,8 +6746,23 @@
       <c r="W59">
         <v>-0.71</v>
       </c>
+      <c r="X59">
+        <v>6.97</v>
+      </c>
+      <c r="Y59">
+        <v>76.59</v>
+      </c>
+      <c r="Z59">
+        <v>6.88</v>
+      </c>
       <c r="AC59" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5729,22 +6770,25 @@
       <c r="AG59">
         <v>7.810939311981201</v>
       </c>
-      <c r="AH59" t="s">
-        <v>144</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688448</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>-3.54</v>
@@ -5762,7 +6806,7 @@
         <v>24030.23</v>
       </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -5803,8 +6847,23 @@
       <c r="W60">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X60">
+        <v>6.84</v>
+      </c>
+      <c r="Y60">
+        <v>45.9</v>
+      </c>
+      <c r="Z60">
+        <v>13.84</v>
+      </c>
       <c r="AC60" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5812,22 +6871,25 @@
       <c r="AG60">
         <v>2.906060457229614</v>
       </c>
-      <c r="AH60" t="s">
-        <v>144</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688500</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-3.39</v>
@@ -5845,7 +6907,7 @@
         <v>32345.95</v>
       </c>
       <c r="J61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -5886,8 +6948,23 @@
       <c r="W61">
         <v>-0.58</v>
       </c>
+      <c r="X61">
+        <v>16.35</v>
+      </c>
+      <c r="Y61">
+        <v>89.5</v>
+      </c>
+      <c r="Z61">
+        <v>17.64</v>
+      </c>
       <c r="AC61" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5895,22 +6972,25 @@
       <c r="AG61">
         <v>3.951327323913574</v>
       </c>
-      <c r="AH61" t="s">
-        <v>144</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>688556</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>5.42</v>
@@ -5928,7 +7008,7 @@
         <v>62301.98</v>
       </c>
       <c r="J62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>7</v>
@@ -5969,8 +7049,23 @@
       <c r="W62">
         <v>0.62</v>
       </c>
+      <c r="X62">
+        <v>7.84</v>
+      </c>
+      <c r="Y62">
+        <v>12.8</v>
+      </c>
+      <c r="Z62">
+        <v>13.48</v>
+      </c>
       <c r="AC62" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -5978,22 +7073,25 @@
       <c r="AG62">
         <v>2.300101280212402</v>
       </c>
-      <c r="AH62" t="s">
-        <v>144</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>688603</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>1.46</v>
@@ -6011,7 +7109,7 @@
         <v>29726.31</v>
       </c>
       <c r="J63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6052,8 +7150,23 @@
       <c r="W63">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X63">
+        <v>-4.18</v>
+      </c>
+      <c r="Y63">
+        <v>67</v>
+      </c>
+      <c r="Z63">
+        <v>0.53</v>
+      </c>
       <c r="AC63" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6061,22 +7174,25 @@
       <c r="AG63">
         <v>3.092835426330566</v>
       </c>
-      <c r="AH63" t="s">
-        <v>144</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688621</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-3.14</v>
@@ -6094,7 +7210,7 @@
         <v>38510.44</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6135,8 +7251,23 @@
       <c r="W64">
         <v>-0.37</v>
       </c>
+      <c r="X64">
+        <v>-1.96</v>
+      </c>
+      <c r="Y64">
+        <v>64.5</v>
+      </c>
+      <c r="Z64">
+        <v>0.08</v>
+      </c>
       <c r="AC64" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6144,22 +7275,25 @@
       <c r="AG64">
         <v>4.810791492462158</v>
       </c>
-      <c r="AH64" t="s">
-        <v>144</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688630</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>4.11</v>
@@ -6177,7 +7311,7 @@
         <v>110151.63</v>
       </c>
       <c r="J65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -6218,8 +7352,23 @@
       <c r="W65">
         <v>0.73</v>
       </c>
+      <c r="X65">
+        <v>-0.83</v>
+      </c>
+      <c r="Y65">
+        <v>119.96</v>
+      </c>
+      <c r="Z65">
+        <v>0.49</v>
+      </c>
       <c r="AC65" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6227,22 +7376,25 @@
       <c r="AG65">
         <v>4.830122947692871</v>
       </c>
-      <c r="AH65" t="s">
-        <v>144</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688668</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2.69</v>
@@ -6260,7 +7412,7 @@
         <v>84062.45</v>
       </c>
       <c r="J66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K66">
         <v>14</v>
@@ -6301,8 +7453,23 @@
       <c r="W66">
         <v>0.47</v>
       </c>
+      <c r="X66">
+        <v>0.68</v>
+      </c>
+      <c r="Y66">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>4.3</v>
+      </c>
       <c r="AC66" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6310,22 +7477,25 @@
       <c r="AG66">
         <v>2.983141422271729</v>
       </c>
-      <c r="AH66" t="s">
-        <v>144</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688788</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>6.81</v>
@@ -6343,7 +7513,7 @@
         <v>132730.84</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -6384,8 +7554,23 @@
       <c r="W67">
         <v>-0.48</v>
       </c>
+      <c r="X67">
+        <v>4.21</v>
+      </c>
+      <c r="Y67">
+        <v>82</v>
+      </c>
+      <c r="Z67">
+        <v>5.56</v>
+      </c>
       <c r="AC67" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6393,22 +7578,25 @@
       <c r="AG67">
         <v>3.058231592178345</v>
       </c>
-      <c r="AH67" t="s">
-        <v>144</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688800</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-0.51</v>
@@ -6426,7 +7614,7 @@
         <v>143152.93</v>
       </c>
       <c r="J68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6467,8 +7655,23 @@
       <c r="W68">
         <v>-0.39</v>
       </c>
+      <c r="X68">
+        <v>0.3</v>
+      </c>
+      <c r="Y68">
+        <v>68.8</v>
+      </c>
+      <c r="Z68">
+        <v>2.9</v>
+      </c>
       <c r="AC68" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6476,8 +7679,11 @@
       <c r="AG68">
         <v>3.786155939102173</v>
       </c>
-      <c r="AH68" t="s">
-        <v>144</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
